--- a/smcsystem/file.xlsx
+++ b/smcsystem/file.xlsx
@@ -77,11 +77,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 监管平台三期</t>
+    <t>监管平台三期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 监管平台三期</t>
+    <t>监管平台三期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
